--- a/InputFiles/CDS/TC03_CDS_phs003432_ExperimentalStrategy_Sequencing.xlsx
+++ b/InputFiles/CDS/TC03_CDS_phs003432_ExperimentalStrategy_Sequencing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0925\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A83B4-9DA1-4CC0-AD5D-BC0D397ECC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B1A20B-098F-486A-A411-8B08917F648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -57,6 +57,35 @@
     <t>TsvExcel</t>
   </si>
   <si>
+    <t>TC03_CDS_phs003432_ExperimentalStrategy_Sequencing_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>TC03_CDS_phs003432_ExperimentalStrategy_Sequencing_TSVData.xlsx</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT s.study_name) AS "Studies",
+    COUNT(DISTINCT sp.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT f.file_id) AS "Files"
+FROM 
+    df_participant sp
+JOIN 
+    df_study s ON sp."study.phs_accession" = s.phs_accession
+JOIN 
+    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+JOIN 
+    df_program p ON p.program_acronym = s."program.program_acronym"
+JOIN 
+    df_file f ON f."sample.sample_id" = smp.sample_id
+JOIN 
+    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+JOIN 
+    df_genomic_info gi ON gi."file.file_id" = f.file_id
+WHERE 
+     s.phs_accession = 'phs003432' AND f.experimental_strategy_and_data_subtypes = 'Sequencing';</t>
+  </si>
+  <si>
     <t>WITH Distinct_Samples AS (
     SELECT DISTINCT
         sp.participant_id,
@@ -80,7 +109,7 @@
     JOIN
         df_genomic_info gi ON gi."file.file_id" = f1.file_id
     WHERE 
-        s.phs_accession = 'phs003155' AND f1.experimental_strategy_and_data_subtypes = 'WGS'
+        s.phs_accession = 'phs003432' AND f1.experimental_strategy_and_data_subtypes = 'Sequencing'
 ),
 Sample_Limit AS (
     SELECT
@@ -138,7 +167,7 @@
 JOIN
     df_genomic_info gi ON gi."file.file_id" = f1.file_id
 WHERE 
-      s.phs_accession = 'phs003155' AND f1.experimental_strategy_and_data_subtypes = 'WGS'
+       s.phs_accession = 'phs003432' AND f1.experimental_strategy_and_data_subtypes = 'Sequencing'
 ORDER BY 
     smp.sample_id ASC
 LIMIT 100;</t>
@@ -178,7 +207,7 @@
 INNER JOIN
     df_program p ON p.program_acronym = s."program.program_acronym"
 WHERE 
-       s.phs_accession = 'phs003155' AND f1.experimental_strategy_and_data_subtypes = 'WGS'
+        s.phs_accession = 'phs003432' AND f1.experimental_strategy_and_data_subtypes = 'Sequencing'
 GROUP BY
     f1.file_name,
     s.study_name,
@@ -189,35 +218,6 @@
 ORDER BY 
     f1.file_name ASC
 LIMIT 100;</t>
-  </si>
-  <si>
-    <t>TC03_CDS_phs003432_ExperimentalStrategy_RNASeq_TSVData.xlsx</t>
-  </si>
-  <si>
-    <t>TC03_CDS_phs003432_ExperimentalStrategy_RNASeq_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT s.study_name) AS "Studies",
-    COUNT(DISTINCT sp.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT f.file_id) AS "Files"
-FROM 
-    df_participant sp
-JOIN 
-    df_study s ON sp."study.phs_accession" = s.phs_accession
-JOIN 
-    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-JOIN 
-    df_program p ON p.program_acronym = s."program.program_acronym"
-JOIN 
-    df_file f ON f."sample.sample_id" = smp.sample_id
-JOIN 
-    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-JOIN 
-    df_genomic_info gi ON gi."file.file_id" = f.file_id
-WHERE 
-     s.phs_accession = 'phs003155' AND f.experimental_strategy_and_data_subtypes = 'RNA-Seq';</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,16 +643,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
